--- a/results/resultsCACC.xlsx
+++ b/results/resultsCACC.xlsx
@@ -537,13 +537,13 @@
         <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002378771305084229</v>
+        <v>0.000346637487411499</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001163244247436523</v>
+        <v>0.07063746452331543</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0001232624053955078</v>
+        <v>0.0001251697540283203</v>
       </c>
     </row>
     <row r="3">
@@ -583,13 +583,13 @@
         <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>8.744335174560547e-05</v>
+        <v>7.298278808593751e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0008115768432617188</v>
+        <v>0.0004432201385498047</v>
       </c>
       <c r="N3" t="n">
-        <v>5.984306335449219e-05</v>
+        <v>5.936622619628906e-05</v>
       </c>
     </row>
     <row r="4">
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8622754491017964</v>
+        <v>0.8502994011976048</v>
       </c>
       <c r="F4" t="n">
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="H4" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002604315280914307</v>
+        <v>0.00029168701171875</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001039266586303711</v>
+        <v>0.001210212707519531</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0001330375671386719</v>
+        <v>0.0001287460327148438</v>
       </c>
     </row>
     <row r="5">
@@ -654,34 +654,34 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8502994011976048</v>
+        <v>0.8622754491017964</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="H5" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>9.752106666564942e-05</v>
+        <v>9.527349472045898e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003945827484130859</v>
+        <v>0.0005195140838623047</v>
       </c>
       <c r="N5" t="n">
-        <v>6.818771362304688e-05</v>
+        <v>6.747245788574219e-05</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9041916167664671</v>
+        <v>0.8862275449101796</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="H6" t="n">
         <v>141</v>
@@ -715,19 +715,19 @@
         <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01069755434989929</v>
+        <v>0.01129698610305786</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04308223724365234</v>
+        <v>0.06622409820556641</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00800776481628418</v>
+        <v>0.007999181747436523</v>
       </c>
     </row>
     <row r="7">
@@ -746,19 +746,19 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9041916167664671</v>
+        <v>0.8982035928143712</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="G7" t="n">
         <v>0.4736842105263158</v>
       </c>
       <c r="H7" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>10</v>
@@ -767,13 +767,13 @@
         <v>9</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00810841178894043</v>
+        <v>0.007614052534103394</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02493095397949219</v>
+        <v>0.013092041015625</v>
       </c>
       <c r="N7" t="n">
-        <v>0.006510019302368164</v>
+        <v>0.006600379943847656</v>
       </c>
     </row>
     <row r="8">
@@ -813,13 +813,13 @@
         <v>19</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0005260529518127441</v>
+        <v>0.0003924052715301514</v>
       </c>
       <c r="M8" t="n">
-        <v>0.008324861526489258</v>
+        <v>0.002433061599731445</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0001370906829833984</v>
+        <v>0.0001382827758789062</v>
       </c>
     </row>
     <row r="9">
@@ -859,13 +859,13 @@
         <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001273016929626465</v>
+        <v>0.0001002638339996338</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0004413127899169922</v>
+        <v>0.0006198883056640625</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0001032352447509766</v>
+        <v>8.082389831542969e-05</v>
       </c>
     </row>
     <row r="10">
@@ -905,13 +905,13 @@
         <v>13</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0005695984363555908</v>
+        <v>0.0004473221302032471</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01023674011230469</v>
+        <v>0.01003742218017578</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0002009868621826172</v>
+        <v>0.0001530647277832031</v>
       </c>
     </row>
     <row r="11">
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00014143967628479</v>
+        <v>0.0001359720230102539</v>
       </c>
       <c r="M11" t="n">
-        <v>0.000537872314453125</v>
+        <v>0.0006124973297119141</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0001201629638671875</v>
+        <v>0.0001018047332763672</v>
       </c>
     </row>
     <row r="12">
@@ -997,13 +997,13 @@
         <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001139843940734863</v>
+        <v>0.001205533266067505</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002988338470458984</v>
+        <v>0.004215717315673828</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0007271766662597656</v>
+        <v>0.00067138671875</v>
       </c>
     </row>
     <row r="13">
@@ -1043,13 +1043,13 @@
         <v>7</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004740428924560547</v>
+        <v>0.0005541503429412842</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0009031295776367188</v>
+        <v>0.001319408416748047</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00040435791015625</v>
+        <v>0.0004651546478271484</v>
       </c>
     </row>
     <row r="14">
@@ -1089,13 +1089,13 @@
         <v>10</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002255468368530273</v>
+        <v>0.000302384614944458</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001070499420166016</v>
+        <v>0.001739740371704102</v>
       </c>
       <c r="N14" t="n">
-        <v>0.000102996826171875</v>
+        <v>0.0001285076141357422</v>
       </c>
     </row>
     <row r="15">
@@ -1135,13 +1135,13 @@
         <v>10</v>
       </c>
       <c r="L15" t="n">
-        <v>7.159996032714844e-05</v>
+        <v>8.963632583618164e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00040435791015625</v>
+        <v>0.0005412101745605469</v>
       </c>
       <c r="N15" t="n">
-        <v>5.435943603515625e-05</v>
+        <v>6.198883056640625e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1179,13 +1179,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004395711421966553</v>
+        <v>0.000583186149597168</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01187610626220703</v>
+        <v>0.006662130355834961</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0001554489135742188</v>
+        <v>0.0002110004425048828</v>
       </c>
     </row>
     <row r="17">
@@ -1225,13 +1225,13 @@
         <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001770672798156738</v>
+        <v>0.0001706204414367676</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001722097396850586</v>
+        <v>0.002483606338500977</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0001108646392822266</v>
+        <v>0.0001039505004882812</v>
       </c>
     </row>
   </sheetData>
